--- a/Passageiros pagos/pmw.xlsx
+++ b/Passageiros pagos/pmw.xlsx
@@ -1,32 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF0288-4C17-4939-927E-CC250FF43632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Passageiros</t>
   </si>
+  <si>
+    <t>Passageiros_freq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +64,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -51,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,21 +103,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +272,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,22 +465,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -401,8 +495,11 @@
       <c r="C2">
         <v>128941</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -412,8 +509,12 @@
       <c r="C3">
         <v>115362</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <f>C3/C2 -1</f>
+        <v>-0.1053117317222606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -423,8 +524,12 @@
       <c r="C4">
         <v>18432</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
+        <v>-0.84022468403807149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -434,8 +539,12 @@
       <c r="C5">
         <v>12098</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.34364149305555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -445,8 +554,12 @@
       <c r="C6">
         <v>135810</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>10.225822449991734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -456,8 +569,12 @@
       <c r="C7">
         <v>192132</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.41471172962226643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -467,8 +584,12 @@
       <c r="C8">
         <v>200977</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6036058543085012E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -478,8 +599,12 @@
       <c r="C9">
         <v>231680</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15276872477945247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -489,8 +614,12 @@
       <c r="C10">
         <v>236840</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2272099447513849E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -500,8 +629,12 @@
       <c r="C11">
         <v>275209</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16200388447897307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -511,8 +644,12 @@
       <c r="C12">
         <v>357248</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29809708258087486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -522,8 +659,12 @@
       <c r="C13">
         <v>495456</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38686850591185951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -533,8 +674,12 @@
       <c r="C14">
         <v>584859</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18044589226894003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -544,8 +689,12 @@
       <c r="C15">
         <v>606110</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6335253454251371E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -555,8 +704,12 @@
       <c r="C16">
         <v>705326</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1636930590156902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -566,8 +719,12 @@
       <c r="C17">
         <v>689519</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.2410913535017896E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -577,8 +734,12 @@
       <c r="C18">
         <v>642223</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>-6.8592743637231224E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -588,8 +749,12 @@
       <c r="C19">
         <v>674712</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0588347038334147E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -599,8 +764,12 @@
       <c r="C20">
         <v>693302</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7552496472569077E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -610,8 +779,12 @@
       <c r="C21">
         <v>608758</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.12194397246798649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -620,6 +793,10 @@
       </c>
       <c r="C22">
         <v>252184</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.58574014633072591</v>
       </c>
     </row>
   </sheetData>

--- a/Passageiros pagos/pmw.xlsx
+++ b/Passageiros pagos/pmw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF0288-4C17-4939-927E-CC250FF43632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E4CA0-AC0F-476B-A75A-CDB01AA7E707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
         <v>128941</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>-0.1053117317222606</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -510,8 +510,7 @@
         <v>115362</v>
       </c>
       <c r="D3" s="3">
-        <f>C3/C2 -1</f>
-        <v>-0.1053117317222606</v>
+        <v>-0.84022468403807149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,8 +524,7 @@
         <v>18432</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
-        <v>-0.84022468403807149</v>
+        <v>-0.34364149305555558</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,8 +538,7 @@
         <v>12098</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.34364149305555558</v>
+        <v>10.225822449991734</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,8 +552,7 @@
         <v>135810</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>10.225822449991734</v>
+        <v>0.41471172962226643</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,8 +566,7 @@
         <v>192132</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.41471172962226643</v>
+        <v>4.6036058543085012E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,8 +580,7 @@
         <v>200977</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6036058543085012E-2</v>
+        <v>0.15276872477945247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -600,8 +594,7 @@
         <v>231680</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.15276872477945247</v>
+        <v>2.2272099447513849E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,8 +608,7 @@
         <v>236840</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2272099447513849E-2</v>
+        <v>0.16200388447897307</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -630,8 +622,7 @@
         <v>275209</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.16200388447897307</v>
+        <v>0.29809708258087486</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -645,8 +636,7 @@
         <v>357248</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.29809708258087486</v>
+        <v>0.38686850591185951</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -660,8 +650,7 @@
         <v>495456</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38686850591185951</v>
+        <v>0.18044589226894003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -675,8 +664,7 @@
         <v>584859</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18044589226894003</v>
+        <v>3.6335253454251371E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -690,8 +678,7 @@
         <v>606110</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6335253454251371E-2</v>
+        <v>0.1636930590156902</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -705,8 +692,7 @@
         <v>705326</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1636930590156902</v>
+        <v>-2.2410913535017896E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,8 +706,7 @@
         <v>689519</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>-2.2410913535017896E-2</v>
+        <v>-6.8592743637231224E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -735,8 +720,7 @@
         <v>642223</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>-6.8592743637231224E-2</v>
+        <v>5.0588347038334147E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,8 +734,7 @@
         <v>674712</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0588347038334147E-2</v>
+        <v>2.7552496472569077E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -765,8 +748,7 @@
         <v>693302</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7552496472569077E-2</v>
+        <v>-0.12194397246798649</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -780,8 +762,7 @@
         <v>608758</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.12194397246798649</v>
+        <v>-0.58574014633072591</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -794,10 +775,7 @@
       <c r="C22">
         <v>252184</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.58574014633072591</v>
-      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/pmw.xlsx
+++ b/Passageiros pagos/pmw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E4CA0-AC0F-476B-A75A-CDB01AA7E707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73804E-6124-449A-89EE-5CDA04BC53C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Passageiros_freq</t>
+  </si>
+  <si>
+    <t>numero_de_passageiros</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -127,6 +130,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,15 +471,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +492,11 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -493,289 +504,392 @@
         <v>2000</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C3</f>
+        <v>-9.4568609413866467E-3</v>
+      </c>
+      <c r="E2">
         <v>128941</v>
       </c>
-      <c r="D2" s="2">
-        <v>-0.1053117317222606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
+        <f>(LN(E3)/LN(E2)) - 1</f>
+        <v>-9.4568609413866467E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D21" si="0">C4</f>
+        <v>-0.15734500935317919</v>
+      </c>
+      <c r="E3">
         <v>115362</v>
       </c>
-      <c r="D3" s="3">
-        <v>-0.84022468403807149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C22" si="1">(LN(E4)/LN(E3)) - 1</f>
+        <v>-0.15734500935317919</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.2868544189977542E-2</v>
+      </c>
+      <c r="E4">
         <v>18432</v>
       </c>
-      <c r="D4" s="3">
-        <v>-0.34364149305555558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.2868544189977542E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25723532851881092</v>
+      </c>
+      <c r="E5">
         <v>12098</v>
       </c>
-      <c r="D5" s="3">
-        <v>10.225822449991734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25723532851881092</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9353196519514402E-2</v>
+      </c>
+      <c r="E6">
         <v>135810</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.41471172962226643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9353196519514402E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.699495933509489E-3</v>
+      </c>
+      <c r="E7">
         <v>192132</v>
       </c>
-      <c r="D7" s="3">
-        <v>4.6036058543085012E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>3.699495933509489E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1642557294604394E-2</v>
+      </c>
+      <c r="E8">
         <v>200977</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.15276872477945247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1642557294604394E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7831699230148601E-3</v>
+      </c>
+      <c r="E9">
         <v>231680</v>
       </c>
-      <c r="D9" s="3">
-        <v>2.2272099447513849E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7831699230148601E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2132872864305089E-2</v>
+      </c>
+      <c r="E10">
         <v>236840</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.16200388447897307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2132872864305089E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0829816391264133E-2</v>
+      </c>
+      <c r="E11">
         <v>275209</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.29809708258087486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0829816391264133E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5578256488277606E-2</v>
+      </c>
+      <c r="E12">
         <v>357248</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.38686850591185951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5578256488277606E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2650749926413019E-2</v>
+      </c>
+      <c r="E13">
         <v>495456</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.18044589226894003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2650749926413019E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6877292238201012E-3</v>
+      </c>
+      <c r="E14">
         <v>584859</v>
       </c>
-      <c r="D14" s="3">
-        <v>3.6335253454251371E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6877292238201012E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1385708281821394E-2</v>
+      </c>
+      <c r="E15">
         <v>606110</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.1636930590156902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1385708281821394E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.6831393935680117E-3</v>
+      </c>
+      <c r="E16">
         <v>705326</v>
       </c>
-      <c r="D16" s="3">
-        <v>-2.2410913535017896E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6831393935680117E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.2856279033145492E-3</v>
+      </c>
+      <c r="E17">
         <v>689519</v>
       </c>
-      <c r="D17" s="3">
-        <v>-6.8592743637231224E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.2856279033145492E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6903820045777191E-3</v>
+      </c>
+      <c r="E18">
         <v>642223</v>
       </c>
-      <c r="D18" s="3">
-        <v>5.0588347038334147E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6903820045777191E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0250092449449753E-3</v>
+      </c>
+      <c r="E19">
         <v>674712</v>
       </c>
-      <c r="D19" s="3">
-        <v>2.7552496472569077E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0250092449449753E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.669323970310395E-3</v>
+      </c>
+      <c r="E20">
         <v>693302</v>
       </c>
-      <c r="D20" s="3">
-        <v>-0.12194397246798649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.669323970310395E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.6164891124251501E-2</v>
+      </c>
+      <c r="E21">
         <v>608758</v>
       </c>
-      <c r="D21" s="3">
-        <v>-0.58574014633072591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>-6.6164891124251501E-2</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22">
         <v>252184</v>
       </c>
-      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/pmw.xlsx
+++ b/Passageiros pagos/pmw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73804E-6124-449A-89EE-5CDA04BC53C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4A6DF4-3F56-4391-B2B3-448BB507C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Passageiros</t>
+    <t>numero_de_passageiros</t>
   </si>
   <si>
-    <t>Passageiros_freq</t>
+    <t>Passageiros_frequencia</t>
   </si>
   <si>
-    <t>numero_de_passageiros</t>
+    <t>Passageiros_freq_defasagem</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
